--- a/3. AMPLIFICADOR SINTONIZADO/INFORME FINAL/amplificador-sintonizado.xlsx
+++ b/3. AMPLIFICADOR SINTONIZADO/INFORME FINAL/amplificador-sintonizado.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\CIRCUITOS ELECTRONICOS III\laboratorio\3. AMPLIFICADOR SINTONIZADO\INFORME FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F68ECA4-03A6-406B-9EC0-851F91D4922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9603C8A4-8082-4CF0-A163-2AF2B49DCA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1104" windowWidth="17184" windowHeight="11424" xr2:uid="{5023834F-0B9D-4F71-B88B-1B4924C26E42}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{5023834F-0B9D-4F71-B88B-1B4924C26E42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculos" sheetId="1" r:id="rId1"/>
+    <sheet name="Mediciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8934A8B-68E9-4305-9664-E9E1A699F317}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,11 +484,11 @@
         <v>6.7999999999999998E-11</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">1/SQRT(B3*C3)</f>
+        <f t="shared" ref="D3:D5" si="0">1/SQRT(B3*C3)</f>
         <v>8175874.2520966073</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="1">D3/(2*PI())</f>
+        <f t="shared" ref="E3:E5" si="1">D3/(2*PI())</f>
         <v>1301230.8013189279</v>
       </c>
     </row>
@@ -511,7 +513,46 @@
         <v>4041236.1826949269</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <f>10*10^-6</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="C5">
+        <f>0.33*10^-6</f>
+        <v>3.3000000000000002E-7</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>550481.88256318029</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>87611.912692462371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D0A0AC-C4DF-4411-B3F9-A68B883CBA82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>